--- a/GKHNNC/Content/OtchetHW.xlsx
+++ b/GKHNNC/Content/OtchetHW.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="14415"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27495" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="Справка по ГВ'ЖКХННЦ' Май" sheetId="1" r:id="rId1"/>
+    <sheet name="Справка по ТЭ'ЖКХННЦ' Июль" sheetId="2" r:id="rId1"/>
+    <sheet name="Справка по ГВ'ЖКХННЦ' Июль" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,9 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
-  <si>
-    <t>Справка о распределении затрат по горячему водоснабжению по подразделениям ФГУП 'ЖКХ ННЦ ' за Май</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
+  <si>
+    <t>Справка о распределении затрат по горячему водоснабжению по подразделениям ФГУП 'ЖКХ ННЦ ' за Июль</t>
   </si>
   <si>
     <t>Подразделения</t>
@@ -81,7 +82,13 @@
     <t>УЭВ</t>
   </si>
   <si>
-    <t>5.Итог</t>
+    <t>5.Корректировака по ИПУ</t>
+  </si>
+  <si>
+    <t>6.Итог</t>
+  </si>
+  <si>
+    <t>Справка о распределении затрат теплоэнергии по подразделениям ФГУП 'ЖКХ ННЦ ' за Июль</t>
   </si>
 </sst>
 </file>
@@ -470,9 +477,190 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="40.625" customWidth="1"/>
+    <col min="2" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="11" width="14.625" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="39.950000000000003" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <f>D4-E4-F4-G4+H4-I4</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <f>SUM(E5:G5)</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1102.03</v>
+      </c>
+      <c r="I6" s="5">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="6">
+        <f>SUM(B3:B6)</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="6">
+        <f>SUM(C3:C6)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -511,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>4</v>
@@ -540,31 +728,32 @@
         <v>6</v>
       </c>
       <c r="B4" s="3">
-        <v>-1168.54</v>
+        <v>6000.69</v>
       </c>
       <c r="C4" s="3">
-        <v>-14843.98</v>
+        <v>128865.12</v>
       </c>
       <c r="D4" s="3">
-        <v>-442008.41</v>
+        <f>E4-F4-G4-H4+I4-J4</f>
+        <v>10360895.799999999</v>
       </c>
       <c r="E4" s="3">
-        <v>15320032.76</v>
+        <v>12579383.99</v>
       </c>
       <c r="F4" s="3">
-        <v>172.98</v>
+        <v>0</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
       </c>
       <c r="H4" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I4" s="3">
-        <v>-1413235.46</v>
+        <v>-1688830.05</v>
       </c>
       <c r="J4" s="3">
-        <v>14348627.73</v>
+        <v>529658.14</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -572,19 +761,20 @@
         <v>12</v>
       </c>
       <c r="B5" s="4">
-        <v>9118.7800000000007</v>
+        <v>0</v>
       </c>
       <c r="C5" s="4">
-        <v>150078.69</v>
+        <v>0</v>
       </c>
       <c r="D5" s="4">
-        <v>172.98</v>
+        <f>SUM(E5:G5)</f>
+        <v>0</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
       </c>
       <c r="F5" s="4">
-        <v>172.98</v>
+        <v>0</v>
       </c>
       <c r="G5" s="4">
         <v>0</v>
@@ -604,13 +794,13 @@
         <v>16</v>
       </c>
       <c r="B6" s="5">
-        <v>406.69400000000002</v>
+        <v>15.013</v>
       </c>
       <c r="C6" s="5">
-        <v>6693.46</v>
+        <v>247.08</v>
       </c>
       <c r="D6" s="5">
-        <v>14348627.73</v>
+        <v>529658.14</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>17</v>
@@ -632,24 +822,38 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="6">
-        <f>SUM(B3:B6)</f>
-        <v>8356.9340000000011</v>
-      </c>
-      <c r="C7" s="6">
-        <f>SUM(C3:C6)</f>
-        <v>141928.22</v>
-      </c>
-      <c r="D7" s="6">
-        <f>SUM(D3:D6)</f>
-        <v>13906797.300000001</v>
+      <c r="B7" s="5">
+        <v>-994.05</v>
+      </c>
+      <c r="C7" s="5">
+        <v>-16030.59</v>
+      </c>
+      <c r="D7" s="5">
+        <v>-1688830.05</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="6">
+        <f>SUM(B3:B6)</f>
+        <v>6015.7029999999995</v>
+      </c>
+      <c r="C8" s="6">
+        <f>SUM(C3:C6)</f>
+        <v>129112.2</v>
+      </c>
+      <c r="D8" s="6">
+        <f>SUM(D3:D6)</f>
+        <v>10890553.939999999</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/GKHNNC/Content/OtchetHW.xlsx
+++ b/GKHNNC/Content/OtchetHW.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27495" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21750" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="Справка по ТЭ'ЖКХННЦ' Июль" sheetId="2" r:id="rId1"/>
-    <sheet name="Справка по ГВ'ЖКХННЦ' Июль" sheetId="1" r:id="rId2"/>
+    <sheet name="Справка по ТЭ'ЖКХННЦ' Август" sheetId="2" r:id="rId1"/>
+    <sheet name="Справка по ГВ'ЖКХННЦ' Август" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" refMode="R1C1"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
   <si>
-    <t>Справка о распределении затрат по горячему водоснабжению по подразделениям ФГУП 'ЖКХ ННЦ ' за Июль</t>
+    <t>Справка о распределении затрат по горячему водоснабжению по подразделениям ФГУП 'ЖКХ ННЦ ' за Август</t>
   </si>
   <si>
     <t>Подразделения</t>
@@ -88,7 +88,7 @@
     <t>6.Итог</t>
   </si>
   <si>
-    <t>Справка о распределении затрат теплоэнергии по подразделениям ФГУП 'ЖКХ ННЦ ' за Июль</t>
+    <t>Справка о распределении затрат теплоэнергии по подразделениям ФГУП 'ЖКХ ННЦ ' за Август</t>
   </si>
 </sst>
 </file>
@@ -540,20 +540,20 @@
         <v>6</v>
       </c>
       <c r="B4" s="3">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="C4" s="3">
         <f>D4-E4-F4-G4+H4-I4</f>
-        <v>0</v>
+        <v>-4623.21</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
       </c>
       <c r="E4" s="3">
-        <v>0</v>
+        <v>253.47</v>
       </c>
       <c r="F4" s="3">
-        <v>0</v>
+        <v>4369.74</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
@@ -570,20 +570,20 @@
         <v>12</v>
       </c>
       <c r="B5" s="4">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C5" s="4">
         <f>SUM(E5:G5)</f>
-        <v>0</v>
+        <v>4623.21</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
       </c>
       <c r="E5" s="4">
-        <v>0</v>
+        <v>253.47</v>
       </c>
       <c r="F5" s="4">
-        <v>0</v>
+        <v>4369.74</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>13</v>
@@ -696,13 +696,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="C3" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2">
-        <v>0</v>
+        <v>510.4</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>4</v>
@@ -728,32 +728,32 @@
         <v>6</v>
       </c>
       <c r="B4" s="3">
-        <v>6000.69</v>
+        <v>6343.17</v>
       </c>
       <c r="C4" s="3">
-        <v>128865.12</v>
+        <v>128561.34</v>
       </c>
       <c r="D4" s="3">
         <f>E4-F4-G4-H4+I4-J4</f>
-        <v>10360895.799999999</v>
+        <v>10918219.970000001</v>
       </c>
       <c r="E4" s="3">
-        <v>12579383.99</v>
+        <v>12828593.720000001</v>
       </c>
       <c r="F4" s="3">
-        <v>0</v>
+        <v>18624.5</v>
       </c>
       <c r="G4" s="3">
-        <v>0</v>
+        <v>1285.31</v>
       </c>
       <c r="H4" s="3">
-        <v>0</v>
+        <v>510.4</v>
       </c>
       <c r="I4" s="3">
-        <v>-1688830.05</v>
+        <v>-1462105.2</v>
       </c>
       <c r="J4" s="3">
-        <v>529658.14</v>
+        <v>427848.34</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -761,23 +761,23 @@
         <v>12</v>
       </c>
       <c r="B5" s="4">
-        <v>0</v>
+        <v>11.12</v>
       </c>
       <c r="C5" s="4">
-        <v>0</v>
+        <v>183.05</v>
       </c>
       <c r="D5" s="4">
         <f>SUM(E5:G5)</f>
-        <v>0</v>
+        <v>19909.810000000001</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
       </c>
       <c r="F5" s="4">
-        <v>0</v>
+        <v>18624.5</v>
       </c>
       <c r="G5" s="4">
-        <v>0</v>
+        <v>1285.31</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>13</v>
@@ -794,13 +794,13 @@
         <v>16</v>
       </c>
       <c r="B6" s="5">
-        <v>15.013</v>
+        <v>12.127000000000001</v>
       </c>
       <c r="C6" s="5">
-        <v>247.08</v>
+        <v>199.59</v>
       </c>
       <c r="D6" s="5">
-        <v>529658.14</v>
+        <v>427848.34</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>17</v>
@@ -826,13 +826,13 @@
         <v>20</v>
       </c>
       <c r="B7" s="5">
-        <v>-994.05</v>
+        <v>-860.6</v>
       </c>
       <c r="C7" s="5">
-        <v>-16030.59</v>
+        <v>-13878.18</v>
       </c>
       <c r="D7" s="5">
-        <v>-1688830.05</v>
+        <v>-1462105.2</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -844,15 +844,15 @@
       </c>
       <c r="B8" s="6">
         <f>SUM(B3:B6)</f>
-        <v>6015.7029999999995</v>
+        <v>6366.7170000000006</v>
       </c>
       <c r="C8" s="6">
         <f>SUM(C3:C6)</f>
-        <v>129112.2</v>
+        <v>128948.98</v>
       </c>
       <c r="D8" s="6">
         <f>SUM(D3:D6)</f>
-        <v>10890553.939999999</v>
+        <v>11366488.520000001</v>
       </c>
     </row>
   </sheetData>

--- a/GKHNNC/Content/OtchetHW.xlsx
+++ b/GKHNNC/Content/OtchetHW.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21750" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14565"/>
   </bookViews>
   <sheets>
-    <sheet name="Справка по ТЭ'ЖКХННЦ' Август" sheetId="2" r:id="rId1"/>
-    <sheet name="Справка по ГВ'ЖКХННЦ' Август" sheetId="1" r:id="rId2"/>
+    <sheet name="Справка по ТЭ'ЖКХННЦ' Ноябрь" sheetId="2" r:id="rId1"/>
+    <sheet name="Справка по ГВ'ЖКХННЦ' Ноябрь" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
   <si>
-    <t>Справка о распределении затрат по горячему водоснабжению по подразделениям ФГУП 'ЖКХ ННЦ ' за Август</t>
+    <t>Справка о распределении затрат по горячему водоснабжению по подразделениям ФГУП 'ЖКХ ННЦ ' за Ноябрь</t>
   </si>
   <si>
     <t>Подразделения</t>
@@ -88,7 +88,7 @@
     <t>6.Итог</t>
   </si>
   <si>
-    <t>Справка о распределении затрат теплоэнергии по подразделениям ФГУП 'ЖКХ ННЦ ' за Август</t>
+    <t>Справка о распределении затрат теплоэнергии по подразделениям ФГУП 'ЖКХ ННЦ ' за Ноябрь</t>
   </si>
 </sst>
 </file>
@@ -511,10 +511,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>0</v>
+        <v>8.8699999999999992</v>
       </c>
       <c r="C3" s="2">
-        <v>0</v>
+        <v>164.63</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>4</v>
@@ -540,23 +540,23 @@
         <v>6</v>
       </c>
       <c r="B4" s="3">
-        <v>-0.2</v>
+        <v>36516.65</v>
       </c>
       <c r="C4" s="3">
         <f>D4-E4-F4-G4+H4-I4</f>
-        <v>-4623.21</v>
+        <v>49985114.700000003</v>
       </c>
       <c r="D4" s="3">
-        <v>0</v>
+        <v>49993575.390000001</v>
       </c>
       <c r="E4" s="3">
-        <v>253.47</v>
+        <v>3968.87</v>
       </c>
       <c r="F4" s="3">
-        <v>4369.74</v>
+        <v>4327.1899999999996</v>
       </c>
       <c r="G4" s="3">
-        <v>0</v>
+        <v>164.63</v>
       </c>
       <c r="H4" s="3">
         <v>0</v>
@@ -570,20 +570,20 @@
         <v>12</v>
       </c>
       <c r="B5" s="4">
-        <v>0.2</v>
+        <v>446.99</v>
       </c>
       <c r="C5" s="4">
         <f>SUM(E5:G5)</f>
-        <v>4623.21</v>
+        <v>8296.06</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
       </c>
       <c r="E5" s="4">
-        <v>253.47</v>
+        <v>3968.87</v>
       </c>
       <c r="F5" s="4">
-        <v>4369.74</v>
+        <v>4327.1899999999996</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>13</v>
@@ -618,10 +618,10 @@
         <v>19</v>
       </c>
       <c r="H6" s="5">
-        <v>1102.03</v>
+        <v>18.559999999999999</v>
       </c>
       <c r="I6" s="5">
-        <v>6.2E-2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -641,11 +641,11 @@
       </c>
       <c r="B8" s="6">
         <f>SUM(B3:B6)</f>
-        <v>0</v>
+        <v>36972.51</v>
       </c>
       <c r="C8" s="6">
         <f>SUM(C3:C6)</f>
-        <v>0</v>
+        <v>49993575.390000008</v>
       </c>
     </row>
   </sheetData>
@@ -696,13 +696,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>0.3</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C3" s="2">
         <v>5</v>
       </c>
       <c r="D3" s="2">
-        <v>510.4</v>
+        <v>518.75</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>4</v>
@@ -728,32 +728,32 @@
         <v>6</v>
       </c>
       <c r="B4" s="3">
-        <v>6343.17</v>
+        <v>7481.73</v>
       </c>
       <c r="C4" s="3">
-        <v>128561.34</v>
+        <v>120224.06</v>
       </c>
       <c r="D4" s="3">
         <f>E4-F4-G4-H4+I4-J4</f>
-        <v>10918219.970000001</v>
+        <v>12494984.770000001</v>
       </c>
       <c r="E4" s="3">
-        <v>12828593.720000001</v>
+        <v>14665464.49</v>
       </c>
       <c r="F4" s="3">
-        <v>18624.5</v>
+        <v>15599.85</v>
       </c>
       <c r="G4" s="3">
         <v>1285.31</v>
       </c>
       <c r="H4" s="3">
-        <v>510.4</v>
+        <v>518.75</v>
       </c>
       <c r="I4" s="3">
-        <v>-1462105.2</v>
+        <v>-1700669.86</v>
       </c>
       <c r="J4" s="3">
-        <v>427848.34</v>
+        <v>452405.95</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -761,20 +761,20 @@
         <v>12</v>
       </c>
       <c r="B5" s="4">
-        <v>11.12</v>
+        <v>9.57</v>
       </c>
       <c r="C5" s="4">
-        <v>183.05</v>
+        <v>162.75</v>
       </c>
       <c r="D5" s="4">
         <f>SUM(E5:G5)</f>
-        <v>19909.810000000001</v>
+        <v>16885.16</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
       </c>
       <c r="F5" s="4">
-        <v>18624.5</v>
+        <v>15599.85</v>
       </c>
       <c r="G5" s="4">
         <v>1285.31</v>
@@ -794,13 +794,13 @@
         <v>16</v>
       </c>
       <c r="B6" s="5">
-        <v>12.127000000000001</v>
+        <v>256.39999999999998</v>
       </c>
       <c r="C6" s="5">
-        <v>199.59</v>
+        <v>4360.54</v>
       </c>
       <c r="D6" s="5">
-        <v>427848.34</v>
+        <v>452405.95</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>17</v>
@@ -815,10 +815,10 @@
         <v>19</v>
       </c>
       <c r="I6" s="5">
-        <v>102.08</v>
+        <v>103.75</v>
       </c>
       <c r="J6" s="5">
-        <v>6.2E-2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -826,13 +826,13 @@
         <v>20</v>
       </c>
       <c r="B7" s="5">
-        <v>-860.6</v>
+        <v>-1016.47</v>
       </c>
       <c r="C7" s="5">
-        <v>-13878.18</v>
+        <v>-16392.04</v>
       </c>
       <c r="D7" s="5">
-        <v>-1462105.2</v>
+        <v>-1700669.86</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -844,15 +844,15 @@
       </c>
       <c r="B8" s="6">
         <f>SUM(B3:B6)</f>
-        <v>6366.7170000000006</v>
+        <v>7747.9899999999989</v>
       </c>
       <c r="C8" s="6">
         <f>SUM(C3:C6)</f>
-        <v>128948.98</v>
+        <v>124752.34999999999</v>
       </c>
       <c r="D8" s="6">
         <f>SUM(D3:D6)</f>
-        <v>11366488.520000001</v>
+        <v>12964794.630000001</v>
       </c>
     </row>
   </sheetData>

--- a/GKHNNC/Content/OtchetHW.xlsx
+++ b/GKHNNC/Content/OtchetHW.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14565"/>
   </bookViews>
   <sheets>
-    <sheet name="Справка по ТЭ'ЖКХННЦ' Ноябрь" sheetId="2" r:id="rId1"/>
-    <sheet name="Справка по ГВ'ЖКХННЦ' Ноябрь" sheetId="1" r:id="rId2"/>
+    <sheet name="Справка по ТЭ'ЖКХННЦ' Декабрь" sheetId="2" r:id="rId1"/>
+    <sheet name="Справка по ГВ'ЖКХННЦ' Декабрь" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
   <si>
-    <t>Справка о распределении затрат по горячему водоснабжению по подразделениям ФГУП 'ЖКХ ННЦ ' за Ноябрь</t>
+    <t>Справка о распределении затрат по горячему водоснабжению по подразделениям ФГУП 'ЖКХ ННЦ ' за Декабрь</t>
   </si>
   <si>
     <t>Подразделения</t>
@@ -88,7 +88,7 @@
     <t>6.Итог</t>
   </si>
   <si>
-    <t>Справка о распределении затрат теплоэнергии по подразделениям ФГУП 'ЖКХ ННЦ ' за Ноябрь</t>
+    <t>Справка о распределении затрат теплоэнергии по подразделениям ФГУП 'ЖКХ ННЦ ' за Декабрь</t>
   </si>
 </sst>
 </file>
@@ -511,10 +511,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>8.8699999999999992</v>
+        <v>9.09</v>
       </c>
       <c r="C3" s="2">
-        <v>164.63</v>
+        <v>12285.04</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>4</v>
@@ -540,23 +540,23 @@
         <v>6</v>
       </c>
       <c r="B4" s="3">
-        <v>36516.65</v>
+        <v>39056.050000000003</v>
       </c>
       <c r="C4" s="3">
         <f>D4-E4-F4-G4+H4-I4</f>
-        <v>49985114.700000003</v>
+        <v>52841083.990000002</v>
       </c>
       <c r="D4" s="3">
-        <v>49993575.390000001</v>
+        <v>53185202.789999999</v>
       </c>
       <c r="E4" s="3">
-        <v>3968.87</v>
+        <v>327506.57</v>
       </c>
       <c r="F4" s="3">
         <v>4327.1899999999996</v>
       </c>
       <c r="G4" s="3">
-        <v>164.63</v>
+        <v>12285.04</v>
       </c>
       <c r="H4" s="3">
         <v>0</v>
@@ -570,17 +570,17 @@
         <v>12</v>
       </c>
       <c r="B5" s="4">
-        <v>446.99</v>
+        <v>245.53</v>
       </c>
       <c r="C5" s="4">
         <f>SUM(E5:G5)</f>
-        <v>8296.06</v>
+        <v>331833.76</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
       </c>
       <c r="E5" s="4">
-        <v>3968.87</v>
+        <v>327506.57</v>
       </c>
       <c r="F5" s="4">
         <v>4327.1899999999996</v>
@@ -618,7 +618,7 @@
         <v>19</v>
       </c>
       <c r="H6" s="5">
-        <v>18.559999999999999</v>
+        <v>1351.49</v>
       </c>
       <c r="I6" s="5">
         <v>0.06</v>
@@ -641,11 +641,11 @@
       </c>
       <c r="B8" s="6">
         <f>SUM(B3:B6)</f>
-        <v>36972.51</v>
+        <v>39310.67</v>
       </c>
       <c r="C8" s="6">
         <f>SUM(C3:C6)</f>
-        <v>49993575.390000008</v>
+        <v>53185202.789999999</v>
       </c>
     </row>
   </sheetData>
@@ -728,20 +728,20 @@
         <v>6</v>
       </c>
       <c r="B4" s="3">
-        <v>7481.73</v>
+        <v>7128.17</v>
       </c>
       <c r="C4" s="3">
-        <v>120224.06</v>
+        <v>114758.45</v>
       </c>
       <c r="D4" s="3">
         <f>E4-F4-G4-H4+I4-J4</f>
-        <v>12494984.770000001</v>
+        <v>11908919.329999998</v>
       </c>
       <c r="E4" s="3">
-        <v>14665464.49</v>
+        <v>14351084.84</v>
       </c>
       <c r="F4" s="3">
-        <v>15599.85</v>
+        <v>18651.14</v>
       </c>
       <c r="G4" s="3">
         <v>1285.31</v>
@@ -750,10 +750,10 @@
         <v>518.75</v>
       </c>
       <c r="I4" s="3">
-        <v>-1700669.86</v>
+        <v>-1999962.89</v>
       </c>
       <c r="J4" s="3">
-        <v>452405.95</v>
+        <v>421747.42</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -761,20 +761,20 @@
         <v>12</v>
       </c>
       <c r="B5" s="4">
-        <v>9.57</v>
+        <v>11.3</v>
       </c>
       <c r="C5" s="4">
-        <v>162.75</v>
+        <v>192.16</v>
       </c>
       <c r="D5" s="4">
         <f>SUM(E5:G5)</f>
-        <v>16885.16</v>
+        <v>19936.45</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
       </c>
       <c r="F5" s="4">
-        <v>15599.85</v>
+        <v>18651.14</v>
       </c>
       <c r="G5" s="4">
         <v>1285.31</v>
@@ -794,13 +794,13 @@
         <v>16</v>
       </c>
       <c r="B6" s="5">
-        <v>256.39999999999998</v>
+        <v>239.024</v>
       </c>
       <c r="C6" s="5">
-        <v>4360.54</v>
+        <v>4065.04</v>
       </c>
       <c r="D6" s="5">
-        <v>452405.95</v>
+        <v>421747.42</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>17</v>
@@ -826,13 +826,13 @@
         <v>20</v>
       </c>
       <c r="B7" s="5">
-        <v>-1016.47</v>
+        <v>-1195.3499999999999</v>
       </c>
       <c r="C7" s="5">
-        <v>-16392.04</v>
+        <v>-19276.79</v>
       </c>
       <c r="D7" s="5">
-        <v>-1700669.86</v>
+        <v>-1999962.89</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -844,15 +844,15 @@
       </c>
       <c r="B8" s="6">
         <f>SUM(B3:B6)</f>
-        <v>7747.9899999999989</v>
+        <v>7378.7840000000006</v>
       </c>
       <c r="C8" s="6">
         <f>SUM(C3:C6)</f>
-        <v>124752.34999999999</v>
+        <v>119020.65</v>
       </c>
       <c r="D8" s="6">
         <f>SUM(D3:D6)</f>
-        <v>12964794.630000001</v>
+        <v>12351121.949999997</v>
       </c>
     </row>
   </sheetData>

--- a/GKHNNC/Content/OtchetHW.xlsx
+++ b/GKHNNC/Content/OtchetHW.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14565"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24825" windowHeight="13035"/>
   </bookViews>
   <sheets>
-    <sheet name="Справка по ТЭ'ЖКХННЦ' Декабрь" sheetId="2" r:id="rId1"/>
-    <sheet name="Справка по ГВ'ЖКХННЦ' Декабрь" sheetId="1" r:id="rId2"/>
+    <sheet name="Справка по ТЭ'ЖКХННЦ' Февраль" sheetId="2" r:id="rId1"/>
+    <sheet name="Справка по ГВ'ЖКХННЦ' Февраль" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
   <si>
-    <t>Справка о распределении затрат по горячему водоснабжению по подразделениям ФГУП 'ЖКХ ННЦ ' за Декабрь</t>
+    <t>Справка о распределении затрат по горячему водоснабжению по подразделениям ФГУП 'ЖКХ ННЦ ' за Февраль</t>
   </si>
   <si>
     <t>Подразделения</t>
@@ -88,7 +88,7 @@
     <t>6.Итог</t>
   </si>
   <si>
-    <t>Справка о распределении затрат теплоэнергии по подразделениям ФГУП 'ЖКХ ННЦ ' за Декабрь</t>
+    <t>Справка о распределении затрат теплоэнергии по подразделениям ФГУП 'ЖКХ ННЦ ' за Февраль</t>
   </si>
 </sst>
 </file>
@@ -511,10 +511,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>9.09</v>
+        <v>3.65</v>
       </c>
       <c r="C3" s="2">
-        <v>12285.04</v>
+        <v>4932.9399999999996</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>4</v>
@@ -540,23 +540,23 @@
         <v>6</v>
       </c>
       <c r="B4" s="3">
-        <v>39056.050000000003</v>
+        <v>37982.410000000003</v>
       </c>
       <c r="C4" s="3">
         <f>D4-E4-F4-G4+H4-I4</f>
-        <v>52841083.990000002</v>
+        <v>51350491.050000004</v>
       </c>
       <c r="D4" s="3">
-        <v>53185202.789999999</v>
+        <v>51651369.299999997</v>
       </c>
       <c r="E4" s="3">
-        <v>327506.57</v>
+        <v>303220.3</v>
       </c>
       <c r="F4" s="3">
-        <v>4327.1899999999996</v>
+        <v>-7274.99</v>
       </c>
       <c r="G4" s="3">
-        <v>12285.04</v>
+        <v>4932.9399999999996</v>
       </c>
       <c r="H4" s="3">
         <v>0</v>
@@ -570,20 +570,20 @@
         <v>12</v>
       </c>
       <c r="B5" s="4">
-        <v>245.53</v>
+        <v>218.98</v>
       </c>
       <c r="C5" s="4">
         <f>SUM(E5:G5)</f>
-        <v>331833.76</v>
+        <v>295945.31</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
       </c>
       <c r="E5" s="4">
-        <v>327506.57</v>
+        <v>303220.3</v>
       </c>
       <c r="F5" s="4">
-        <v>4327.1899999999996</v>
+        <v>-7274.99</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>13</v>
@@ -641,11 +641,11 @@
       </c>
       <c r="B8" s="6">
         <f>SUM(B3:B6)</f>
-        <v>39310.67</v>
+        <v>38205.040000000008</v>
       </c>
       <c r="C8" s="6">
         <f>SUM(C3:C6)</f>
-        <v>53185202.789999999</v>
+        <v>51651369.300000004</v>
       </c>
     </row>
   </sheetData>
@@ -728,32 +728,32 @@
         <v>6</v>
       </c>
       <c r="B4" s="3">
-        <v>7128.17</v>
+        <v>7469.22</v>
       </c>
       <c r="C4" s="3">
-        <v>114758.45</v>
+        <v>120236.08</v>
       </c>
       <c r="D4" s="3">
         <f>E4-F4-G4-H4+I4-J4</f>
-        <v>11908919.329999998</v>
+        <v>12476657.810000001</v>
       </c>
       <c r="E4" s="3">
-        <v>14351084.84</v>
+        <v>14665227.01</v>
       </c>
       <c r="F4" s="3">
-        <v>18651.14</v>
+        <v>15419.32</v>
       </c>
       <c r="G4" s="3">
-        <v>1285.31</v>
+        <v>222.2</v>
       </c>
       <c r="H4" s="3">
         <v>518.75</v>
       </c>
       <c r="I4" s="3">
-        <v>-1999962.89</v>
+        <v>-1706482.19</v>
       </c>
       <c r="J4" s="3">
-        <v>421747.42</v>
+        <v>465926.74</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -761,23 +761,23 @@
         <v>12</v>
       </c>
       <c r="B5" s="4">
-        <v>11.3</v>
+        <v>8.86</v>
       </c>
       <c r="C5" s="4">
-        <v>192.16</v>
+        <v>150.76</v>
       </c>
       <c r="D5" s="4">
         <f>SUM(E5:G5)</f>
-        <v>19936.45</v>
+        <v>15641.52</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
       </c>
       <c r="F5" s="4">
-        <v>18651.14</v>
+        <v>15419.32</v>
       </c>
       <c r="G5" s="4">
-        <v>1285.31</v>
+        <v>222.2</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>13</v>
@@ -794,13 +794,13 @@
         <v>16</v>
       </c>
       <c r="B6" s="5">
-        <v>239.024</v>
+        <v>264.06299999999999</v>
       </c>
       <c r="C6" s="5">
-        <v>4065.04</v>
+        <v>4490.8599999999997</v>
       </c>
       <c r="D6" s="5">
-        <v>421747.42</v>
+        <v>465926.74</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>17</v>
@@ -826,13 +826,13 @@
         <v>20</v>
       </c>
       <c r="B7" s="5">
-        <v>-1195.3499999999999</v>
+        <v>-1019.94</v>
       </c>
       <c r="C7" s="5">
-        <v>-19276.79</v>
+        <v>-16448.060000000001</v>
       </c>
       <c r="D7" s="5">
-        <v>-1999962.89</v>
+        <v>-1706482.19</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -844,15 +844,15 @@
       </c>
       <c r="B8" s="6">
         <f>SUM(B3:B6)</f>
-        <v>7378.7840000000006</v>
+        <v>7742.433</v>
       </c>
       <c r="C8" s="6">
         <f>SUM(C3:C6)</f>
-        <v>119020.65</v>
+        <v>124882.7</v>
       </c>
       <c r="D8" s="6">
         <f>SUM(D3:D6)</f>
-        <v>12351121.949999997</v>
+        <v>12958744.82</v>
       </c>
     </row>
   </sheetData>
